--- a/tests/test_data/mock_output.xlsx
+++ b/tests/test_data/mock_output.xlsx
@@ -476,16 +476,8 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS102 (R101)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -494,16 +486,8 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS102 (R101)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
